--- a/H1299_143B_prot-nucl-quant/AA_influx_143B-GOT-DKO/coulter_counter_data.xlsx
+++ b/H1299_143B_prot-nucl-quant/AA_influx_143B-GOT-DKO/coulter_counter_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/flux_calculations/uptake-to-flux/Asp-143B-2xGOT-KO/Asp-uptake_flux/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/H1299_143B_prot-nucl-quant/AA_influx_143B-GOT-DKO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33079EB1-FAE6-464E-9B19-F13DFB85A939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFD98E9-BD72-4C41-A638-6569254EE7C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1940" windowWidth="27760" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="4920" windowWidth="27760" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>Sample ID</t>
   </si>
@@ -241,6 +241,18 @@
   </si>
   <si>
     <t>m0h-&gt;m30h</t>
+  </si>
+  <si>
+    <t>Volume accumulation</t>
+  </si>
+  <si>
+    <t>Volume hours</t>
+  </si>
+  <si>
+    <t>Vol hours</t>
+  </si>
+  <si>
+    <t>Vol accum</t>
   </si>
 </sst>
 </file>
@@ -676,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -690,6 +702,8 @@
     <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="9.6640625" customWidth="1"/>
     <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -1645,607 +1659,725 @@
         <v>600850</v>
       </c>
     </row>
-    <row r="33" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="H33" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
         <v>57</v>
       </c>
     </row>
+    <row r="34" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>5</v>
+      </c>
+      <c r="O34">
+        <v>6</v>
+      </c>
+      <c r="P34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="35" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="H35" t="s">
-        <v>52</v>
-      </c>
-      <c r="I35" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>3</v>
-      </c>
-      <c r="M35">
-        <v>4</v>
-      </c>
-      <c r="N35">
-        <v>5</v>
-      </c>
-      <c r="O35">
-        <v>6</v>
-      </c>
-      <c r="P35" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>56</v>
+      <c r="H35" s="2">
+        <v>44270.618750000001</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <f t="shared" ref="J35:O37" si="2">LOG(J27,2)</f>
+        <v>17.483059977871669</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" si="2"/>
+        <v>17.649480738968602</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="2"/>
+        <v>17.652284811845306</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" si="2"/>
+        <v>17.725339627868397</v>
+      </c>
+      <c r="N35" s="6">
+        <f t="shared" si="2"/>
+        <v>17.659968027995237</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="2"/>
+        <v>17.635378035850422</v>
+      </c>
+      <c r="P35" s="5">
+        <f>AVERAGE(J35:O35)</f>
+        <v>17.634251870066603</v>
       </c>
     </row>
     <row r="36" spans="6:18" x14ac:dyDescent="0.2">
       <c r="H36" s="2">
-        <v>44270.618750000001</v>
+        <v>44271.97152777778</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <f>(H36-$H$27)*24</f>
+        <v>32.466666666674428</v>
       </c>
       <c r="J36" s="6">
-        <f>LOG(J27,2)</f>
-        <v>17.483059977871669</v>
+        <f t="shared" si="2"/>
+        <v>19.380892226314955</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" ref="K36:O36" si="2">LOG(K27,2)</f>
-        <v>17.649480738968602</v>
+        <f t="shared" si="2"/>
+        <v>19.197725432970792</v>
       </c>
       <c r="L36" s="6">
         <f t="shared" si="2"/>
-        <v>17.652284811845306</v>
+        <v>19.154373130369436</v>
       </c>
       <c r="M36" s="6">
         <f t="shared" si="2"/>
-        <v>17.725339627868397</v>
+        <v>19.274578351878564</v>
       </c>
       <c r="N36" s="6">
         <f t="shared" si="2"/>
-        <v>17.659968027995237</v>
+        <v>19.2691084115216</v>
       </c>
       <c r="O36" s="6">
         <f t="shared" si="2"/>
-        <v>17.635378035850422</v>
+        <v>19.05059267246645</v>
       </c>
       <c r="P36" s="5">
-        <f>AVERAGE(J36:O36)</f>
-        <v>17.634251870066603</v>
+        <f t="shared" ref="P36:P37" si="3">AVERAGE(J36:O36)</f>
+        <v>19.221211704253633</v>
       </c>
     </row>
     <row r="37" spans="6:18" x14ac:dyDescent="0.2">
       <c r="H37" s="2">
-        <v>44271.97152777778</v>
+        <v>44271.991666666669</v>
       </c>
       <c r="I37">
-        <f>(H37-$H$27)*24</f>
-        <v>32.466666666674428</v>
+        <f t="shared" ref="I37" si="4">(H37-$H$27)*24</f>
+        <v>32.950000000011642</v>
       </c>
       <c r="J37" s="6">
-        <f t="shared" ref="J37:O37" si="3">LOG(J28,2)</f>
-        <v>19.380892226314955</v>
+        <f t="shared" si="2"/>
+        <v>19.223643519301717</v>
       </c>
       <c r="K37" s="6">
+        <f t="shared" si="2"/>
+        <v>19.22435031855202</v>
+      </c>
+      <c r="L37" s="6">
+        <f t="shared" si="2"/>
+        <v>19.087317802002119</v>
+      </c>
+      <c r="M37" s="6">
+        <f t="shared" si="2"/>
+        <v>19.318048457920408</v>
+      </c>
+      <c r="N37" s="6">
+        <f t="shared" si="2"/>
+        <v>19.208720180001666</v>
+      </c>
+      <c r="O37" s="6">
+        <f t="shared" si="2"/>
+        <v>19.105079817388095</v>
+      </c>
+      <c r="P37" s="5">
         <f t="shared" si="3"/>
-        <v>19.197725432970792</v>
-      </c>
-      <c r="L37" s="6">
-        <f t="shared" si="3"/>
-        <v>19.154373130369436</v>
-      </c>
-      <c r="M37" s="6">
-        <f t="shared" si="3"/>
-        <v>19.274578351878564</v>
-      </c>
-      <c r="N37" s="6">
-        <f t="shared" si="3"/>
-        <v>19.2691084115216</v>
-      </c>
-      <c r="O37" s="6">
-        <f t="shared" si="3"/>
-        <v>19.05059267246645</v>
-      </c>
-      <c r="P37" s="5">
-        <f t="shared" ref="P37:P38" si="4">AVERAGE(J37:O37)</f>
-        <v>19.221211704253633</v>
-      </c>
-    </row>
-    <row r="38" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="H38" s="2">
-        <v>44271.991666666669</v>
-      </c>
-      <c r="I38">
-        <f t="shared" ref="I38" si="5">(H38-$H$27)*24</f>
-        <v>32.950000000011642</v>
-      </c>
-      <c r="J38" s="6">
-        <f t="shared" ref="J38:O38" si="6">LOG(J29,2)</f>
-        <v>19.223643519301717</v>
-      </c>
-      <c r="K38" s="6">
+        <v>19.19452668252767</v>
+      </c>
+      <c r="Q37">
+        <f>SLOPE(P35:P37,I35:I37)</f>
+        <v>4.8093675078406228E-2</v>
+      </c>
+      <c r="R37">
+        <f>Q37*24</f>
+        <v>1.1542482018817495</v>
+      </c>
+    </row>
+    <row r="40" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" t="s">
+        <v>51</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <v>5</v>
+      </c>
+      <c r="O42">
+        <v>6</v>
+      </c>
+      <c r="P42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="2">
+        <v>44270.618750000001</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" ref="J43:O43" si="5">J27</f>
+        <v>183200</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="5"/>
+        <v>205600</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" si="5"/>
+        <v>206000</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" si="5"/>
+        <v>216700</v>
+      </c>
+      <c r="N43" s="4">
+        <f t="shared" si="5"/>
+        <v>207100</v>
+      </c>
+      <c r="O43" s="4">
+        <f t="shared" si="5"/>
+        <v>203600</v>
+      </c>
+      <c r="P43" s="4">
+        <f>AVERAGE(J43:O43)</f>
+        <v>203700</v>
+      </c>
+    </row>
+    <row r="44" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" s="2">
+        <v>44270.666666666664</v>
+      </c>
+      <c r="I44">
+        <f>(H44-$H$27)*24</f>
+        <v>1.1499999999068677</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" ref="J44:O46" si="6">J$47*2^(($I44-$I$47)*$Q$37)</f>
+        <v>240346.89416695092</v>
+      </c>
+      <c r="K44" s="4">
         <f t="shared" si="6"/>
-        <v>19.22435031855202</v>
-      </c>
-      <c r="L38" s="6">
+        <v>211689.74287767333</v>
+      </c>
+      <c r="L44" s="4">
         <f t="shared" si="6"/>
-        <v>19.087317802002119</v>
-      </c>
-      <c r="M38" s="6">
+        <v>205423.19136724164</v>
+      </c>
+      <c r="M44" s="4">
         <f t="shared" si="6"/>
-        <v>19.318048457920408</v>
-      </c>
-      <c r="N38" s="6">
+        <v>223272.30156830273</v>
+      </c>
+      <c r="N44" s="4">
         <f t="shared" si="6"/>
-        <v>19.208720180001666</v>
-      </c>
-      <c r="O38" s="6">
+        <v>222427.37327476137</v>
+      </c>
+      <c r="O44" s="4">
         <f t="shared" si="6"/>
-        <v>19.105079817388095</v>
-      </c>
-      <c r="P38" s="5">
-        <f t="shared" si="4"/>
-        <v>19.19452668252767</v>
-      </c>
-      <c r="Q38">
-        <f>SLOPE(P36:P38,I36:I38)</f>
-        <v>4.8093675078406228E-2</v>
-      </c>
-      <c r="R38">
-        <f>Q38*24</f>
-        <v>1.1542482018817495</v>
-      </c>
-    </row>
-    <row r="41" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="H41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="H43" t="s">
-        <v>52</v>
-      </c>
-      <c r="I43" t="s">
-        <v>51</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>2</v>
-      </c>
-      <c r="L43">
-        <v>3</v>
-      </c>
-      <c r="M43">
-        <v>4</v>
-      </c>
-      <c r="N43">
-        <v>5</v>
-      </c>
-      <c r="O43">
-        <v>6</v>
-      </c>
-      <c r="P43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="G44" t="s">
-        <v>59</v>
-      </c>
-      <c r="H44" s="2">
-        <v>44270.618750000001</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4">
-        <f>J27</f>
-        <v>183200</v>
-      </c>
-      <c r="K44" s="4">
-        <f t="shared" ref="K44:O44" si="7">K27</f>
-        <v>205600</v>
-      </c>
-      <c r="L44" s="4">
-        <f t="shared" si="7"/>
-        <v>206000</v>
-      </c>
-      <c r="M44" s="4">
-        <f t="shared" si="7"/>
-        <v>216700</v>
-      </c>
-      <c r="N44" s="4">
-        <f t="shared" si="7"/>
-        <v>207100</v>
-      </c>
-      <c r="O44" s="4">
-        <f t="shared" si="7"/>
-        <v>203600</v>
+        <v>191165.02641373128</v>
       </c>
       <c r="P44" s="4">
-        <f>AVERAGE(J44:O44)</f>
-        <v>203700</v>
+        <f t="shared" ref="P44:P48" si="7">AVERAGE(J44:O44)</f>
+        <v>215720.75494477688</v>
       </c>
     </row>
     <row r="45" spans="6:18" x14ac:dyDescent="0.2">
       <c r="F45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G45" t="s">
         <v>54</v>
       </c>
       <c r="H45" s="2">
-        <v>44270.666666666664</v>
+        <v>44271.625</v>
       </c>
       <c r="I45">
-        <f>(H45-$H$27)*24</f>
-        <v>1.1499999999068677</v>
+        <f t="shared" ref="I45:I48" si="8">(H45-$H$27)*24</f>
+        <v>24.149999999965075</v>
       </c>
       <c r="J45" s="4">
-        <f>J$48*2^(($I45-$I$48)*$Q$38)</f>
-        <v>240346.89416695092</v>
+        <f t="shared" si="6"/>
+        <v>517397.35810935142</v>
       </c>
       <c r="K45" s="4">
-        <f>K$48*2^(($I45-$I$48)*$Q$38)</f>
-        <v>211689.74287767333</v>
+        <f t="shared" si="6"/>
+        <v>455706.79863945069</v>
       </c>
       <c r="L45" s="4">
-        <f t="shared" ref="K45:O47" si="8">L$48*2^(($I45-$I$48)*$Q$38)</f>
-        <v>205423.19136724164</v>
+        <f t="shared" si="6"/>
+        <v>442216.72543841595</v>
       </c>
       <c r="M45" s="4">
-        <f t="shared" si="8"/>
-        <v>223272.30156830273</v>
+        <f t="shared" si="6"/>
+        <v>480640.6979829364</v>
       </c>
       <c r="N45" s="4">
-        <f t="shared" si="8"/>
-        <v>222427.37327476137</v>
+        <f t="shared" si="6"/>
+        <v>478821.81170863955</v>
       </c>
       <c r="O45" s="4">
-        <f t="shared" si="8"/>
-        <v>191165.02641373128</v>
+        <f t="shared" si="6"/>
+        <v>411523.01955965697</v>
       </c>
       <c r="P45" s="4">
-        <f t="shared" ref="P45:P49" si="9">AVERAGE(J45:O45)</f>
-        <v>215720.75494477688</v>
+        <f t="shared" si="7"/>
+        <v>464384.40190640854</v>
       </c>
     </row>
     <row r="46" spans="6:18" x14ac:dyDescent="0.2">
       <c r="F46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G46" t="s">
         <v>54</v>
       </c>
       <c r="H46" s="2">
-        <v>44271.625</v>
+        <v>44271.958333333336</v>
       </c>
       <c r="I46">
-        <f t="shared" ref="I46:I49" si="10">(H46-$H$27)*24</f>
-        <v>24.149999999965075</v>
+        <f>(H46-$H$27)*24</f>
+        <v>32.150000000023283</v>
       </c>
       <c r="J46" s="4">
-        <f>J$48*2^(($I46-$I$48)*$Q$38)</f>
-        <v>517397.35810935142</v>
+        <f t="shared" si="6"/>
+        <v>675531.05244768865</v>
       </c>
       <c r="K46" s="4">
-        <f>K$48*2^(($I46-$I$48)*$Q$38)</f>
-        <v>455706.79863945069</v>
+        <f t="shared" si="6"/>
+        <v>594985.8236953204</v>
       </c>
       <c r="L46" s="4">
+        <f t="shared" si="6"/>
+        <v>577372.73927526933</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" si="6"/>
+        <v>627540.34489867312</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" si="6"/>
+        <v>625165.54699934041</v>
+      </c>
+      <c r="O46" s="4">
+        <f t="shared" si="6"/>
+        <v>537298.02472402947</v>
+      </c>
+      <c r="P46" s="4">
+        <f t="shared" si="7"/>
+        <v>606315.58867338684</v>
+      </c>
+    </row>
+    <row r="47" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" s="2">
+        <v>44271.97152777778</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="8"/>
-        <v>442216.72543841595</v>
-      </c>
-      <c r="M46" s="4">
-        <f t="shared" si="8"/>
-        <v>480640.6979829364</v>
-      </c>
-      <c r="N46" s="4">
-        <f t="shared" si="8"/>
-        <v>478821.81170863955</v>
-      </c>
-      <c r="O46" s="4">
-        <f>O$48*2^(($I46-$I$48)*$Q$38)</f>
-        <v>411523.01955965697</v>
-      </c>
-      <c r="P46" s="4">
+        <v>32.466666666674428</v>
+      </c>
+      <c r="J47" s="4">
+        <f t="shared" ref="J47:O48" si="9">J28</f>
+        <v>682700</v>
+      </c>
+      <c r="K47" s="4">
         <f t="shared" si="9"/>
-        <v>464384.40190640854</v>
-      </c>
-    </row>
-    <row r="47" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F47" t="s">
-        <v>67</v>
-      </c>
-      <c r="G47" t="s">
-        <v>54</v>
-      </c>
-      <c r="H47" s="2">
-        <v>44271.958333333336</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="10"/>
-        <v>32.150000000023283</v>
-      </c>
-      <c r="J47" s="4">
-        <f t="shared" ref="J47" si="11">J$48*2^(($I47-$I$48)*$Q$38)</f>
-        <v>675531.05244768865</v>
-      </c>
-      <c r="K47" s="4">
-        <f t="shared" si="8"/>
-        <v>594985.8236953204</v>
+        <v>601300</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" si="8"/>
-        <v>577372.73927526933</v>
+        <f t="shared" si="9"/>
+        <v>583500</v>
       </c>
       <c r="M47" s="4">
-        <f t="shared" si="8"/>
-        <v>627540.34489867312</v>
+        <f t="shared" si="9"/>
+        <v>634200</v>
       </c>
       <c r="N47" s="4">
-        <f t="shared" si="8"/>
-        <v>625165.54699934041</v>
+        <f t="shared" si="9"/>
+        <v>631800</v>
       </c>
       <c r="O47" s="4">
-        <f>O$48*2^(($I47-$I$48)*$Q$38)</f>
-        <v>537298.02472402947</v>
+        <f t="shared" si="9"/>
+        <v>543000</v>
       </c>
       <c r="P47" s="4">
-        <f t="shared" si="9"/>
-        <v>606315.58867338684</v>
+        <f t="shared" si="7"/>
+        <v>612750</v>
       </c>
     </row>
     <row r="48" spans="6:18" x14ac:dyDescent="0.2">
       <c r="G48" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H48" s="2">
-        <v>44271.97152777778</v>
+        <v>44271.991666666669</v>
       </c>
       <c r="I48">
+        <f t="shared" si="8"/>
+        <v>32.950000000011642</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" si="9"/>
+        <v>612200</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="9"/>
+        <v>612500</v>
+      </c>
+      <c r="L48" s="4">
+        <f t="shared" si="9"/>
+        <v>557000</v>
+      </c>
+      <c r="M48" s="4">
+        <f t="shared" si="9"/>
+        <v>653600</v>
+      </c>
+      <c r="N48" s="4">
+        <f t="shared" si="9"/>
+        <v>605900</v>
+      </c>
+      <c r="O48" s="4">
+        <f t="shared" si="9"/>
+        <v>563900</v>
+      </c>
+      <c r="P48" s="4">
+        <f t="shared" si="7"/>
+        <v>600850</v>
+      </c>
+    </row>
+    <row r="51" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>68</v>
+      </c>
+      <c r="J52">
+        <f>(J45-J44)*$F$21 *0.000000000000001</f>
+        <v>1.3224080394744016E-6</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ref="K52:O52" si="10">(K45-K44)*$F$21 *0.000000000000001</f>
+        <v>1.1647340766602571E-6</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="10"/>
-        <v>32.466666666674428</v>
-      </c>
-      <c r="J48" s="4">
-        <f>J28</f>
-        <v>682700</v>
-      </c>
-      <c r="K48" s="4">
-        <f t="shared" ref="K48:O49" si="12">K28</f>
-        <v>601300</v>
-      </c>
-      <c r="L48" s="4">
+        <v>1.1302550037107271E-6</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="10"/>
+        <v>1.2284622508197825E-6</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="10"/>
+        <v>1.2238133870513063E-6</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="10"/>
+        <v>1.0518054276176945E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J53">
+        <f>(J46-J44)*$F$21*0.000000000000001</f>
+        <v>2.0772065181670081E-6</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ref="K53:O53" si="11">(K46-K44)*$F$21*0.000000000000001</f>
+        <v>1.8295360764227658E-6</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="11"/>
+        <v>1.7753771837563343E-6</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="11"/>
+        <v>1.9296387488230798E-6</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="11"/>
+        <v>1.9223364262163703E-6</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="11"/>
+        <v>1.6521504897681053E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="7:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="G59" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>68</v>
+      </c>
+      <c r="J62">
+        <f>$F$21*0.000000000000001* (J44* (2^($Q$37*23) - 2^($Q$37*0)) / ($Q$37 * LN(2)))</f>
+        <v>3.9669073271364679E-5</v>
+      </c>
+      <c r="K62">
+        <f t="shared" ref="K62:O62" si="12">$F$21*0.000000000000001* (K44* (2^($Q$37*23) - 2^($Q$37*0)) / ($Q$37 * LN(2)))</f>
+        <v>3.4939232104982537E-5</v>
+      </c>
+      <c r="L62">
         <f t="shared" si="12"/>
-        <v>583500</v>
-      </c>
-      <c r="M48" s="4">
+        <v>3.3904942513316673E-5</v>
+      </c>
+      <c r="M62">
         <f t="shared" si="12"/>
-        <v>634200</v>
-      </c>
-      <c r="N48" s="4">
+        <v>3.6850924664859351E-5</v>
+      </c>
+      <c r="N62">
         <f t="shared" si="12"/>
-        <v>631800</v>
-      </c>
-      <c r="O48" s="4">
+        <v>3.6711469888454957E-5</v>
+      </c>
+      <c r="O62">
         <f t="shared" si="12"/>
-        <v>543000</v>
-      </c>
-      <c r="P48" s="4">
-        <f t="shared" si="9"/>
-        <v>612750</v>
-      </c>
-    </row>
-    <row r="49" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="G49" t="s">
-        <v>53</v>
-      </c>
-      <c r="H49" s="2">
-        <v>44271.991666666669</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="10"/>
-        <v>32.950000000011642</v>
-      </c>
-      <c r="J49" s="4">
-        <f>J29</f>
-        <v>612200</v>
-      </c>
-      <c r="K49" s="4">
-        <f t="shared" si="12"/>
-        <v>612500</v>
-      </c>
-      <c r="L49" s="4">
-        <f t="shared" si="12"/>
-        <v>557000</v>
-      </c>
-      <c r="M49" s="4">
-        <f t="shared" si="12"/>
-        <v>653600</v>
-      </c>
-      <c r="N49" s="4">
-        <f t="shared" si="12"/>
-        <v>605900</v>
-      </c>
-      <c r="O49" s="4">
-        <f t="shared" si="12"/>
-        <v>563900</v>
-      </c>
-      <c r="P49" s="4">
-        <f t="shared" si="9"/>
-        <v>600850</v>
-      </c>
-    </row>
-    <row r="53" spans="7:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="G53" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-      <c r="J56">
-        <f>$F$21*0.000000000000001* (J45* (2^($Q$38*23) - 2^($Q$38*0)) / ($Q$38 * LOG(2)))</f>
-        <v>9.1341416767532844E-5</v>
-      </c>
-      <c r="K56">
-        <f t="shared" ref="K56:O56" si="13">$F$21*0.000000000000001* (K45* (2^($Q$38*23) - 2^($Q$38*0)) / ($Q$38 * LOG(2)))</f>
-        <v>8.0450555005591754E-5</v>
-      </c>
-      <c r="L56">
+        <v>3.1551643161492627E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>69</v>
+      </c>
+      <c r="J63">
+        <f>$F$21*0.000000000000001* (J44* (2^($Q$37*31) - 2^($Q$37*0)) / ($Q$37 * LN(2)))</f>
+        <v>6.2311219464059115E-5</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ref="K63:O63" si="13">$F$21*0.000000000000001* (K44* (2^($Q$37*31) - 2^($Q$37*0)) / ($Q$37 * LN(2)))</f>
+        <v>5.4881699522101572E-5</v>
+      </c>
+      <c r="L63">
         <f t="shared" si="13"/>
-        <v>7.8069015209983027E-5</v>
-      </c>
-      <c r="M56">
+        <v>5.3257062483196848E-5</v>
+      </c>
+      <c r="M63">
         <f t="shared" si="13"/>
-        <v>8.4852389796351738E-5</v>
-      </c>
-      <c r="N56">
+        <v>5.7884539891762546E-5</v>
+      </c>
+      <c r="N63">
         <f t="shared" si="13"/>
-        <v>8.4531283307056167E-5</v>
-      </c>
-      <c r="O56">
+        <v>5.7665487706741675E-5</v>
+      </c>
+      <c r="O63">
         <f t="shared" si="13"/>
-        <v>7.2650343203120441E-5</v>
-      </c>
-    </row>
-    <row r="57" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="H57" t="s">
-        <v>69</v>
-      </c>
-      <c r="J57">
-        <f>$F$21*0.000000000000001* (J45* (2^($Q$38*31) - 2^($Q$38*0)) / ($Q$38 * LOG(2)))</f>
-        <v>1.4347688506422294E-4</v>
-      </c>
-      <c r="K57">
-        <f t="shared" ref="K57:N57" si="14">$F$21*0.000000000000001* (K45* (2^($Q$38*31) - 2^($Q$38*0)) / ($Q$38 * LOG(2)))</f>
-        <v>1.2636978319776951E-4</v>
-      </c>
-      <c r="L57">
-        <f>$F$21*0.000000000000001* (L45* (2^($Q$38*31) - 2^($Q$38*0)) / ($Q$38 * LOG(2)))</f>
-        <v>1.2262891817046151E-4</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="14"/>
-        <v>1.332840786695916E-4</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="14"/>
-        <v>1.3277969237377477E-4</v>
-      </c>
-      <c r="O57">
-        <f>$F$21*0.000000000000001* (O45* (2^($Q$38*31) - 2^($Q$38*0)) / ($Q$38 * LOG(2)))</f>
-        <v>1.1411739942855286E-4</v>
-      </c>
-    </row>
-    <row r="58" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="J58">
-        <f>1/(F21*J45*0.000000000000001) * (Q38*LOG(2)) /(2^(Q38*23) - 1)</f>
-        <v>10947.936165091853</v>
-      </c>
-    </row>
-    <row r="61" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="J61">
-        <f>J56</f>
-        <v>9.1341416767532844E-5</v>
-      </c>
-      <c r="K61" s="9"/>
-      <c r="L61" s="10"/>
-    </row>
-    <row r="62" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="J62">
-        <f>K56</f>
-        <v>8.0450555005591754E-5</v>
-      </c>
-      <c r="K62" s="9"/>
-      <c r="L62" s="10"/>
-    </row>
-    <row r="63" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="J63">
-        <f>L56</f>
-        <v>7.8069015209983027E-5</v>
-      </c>
-      <c r="K63" s="9"/>
-      <c r="L63" s="10"/>
-    </row>
-    <row r="64" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="J64">
-        <f>M56</f>
-        <v>8.4852389796351738E-5</v>
-      </c>
-      <c r="K64" s="9"/>
-      <c r="L64" s="10"/>
-    </row>
-    <row r="65" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J65">
-        <f>N56</f>
-        <v>8.4531283307056167E-5</v>
-      </c>
-      <c r="K65" s="9"/>
-      <c r="L65" s="10"/>
-    </row>
-    <row r="66" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J66">
-        <f>O56</f>
-        <v>7.2650343203120441E-5</v>
-      </c>
-      <c r="K66" s="9"/>
-      <c r="L66" s="10"/>
-    </row>
-    <row r="67" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J67">
-        <f>J57</f>
-        <v>1.4347688506422294E-4</v>
+        <v>4.9560556860969811E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>72</v>
+      </c>
+      <c r="J67" t="s">
+        <v>73</v>
       </c>
       <c r="K67" s="9"/>
       <c r="L67" s="10"/>
     </row>
-    <row r="68" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <f>J62</f>
+        <v>3.9669073271364679E-5</v>
+      </c>
       <c r="J68">
-        <f>K57</f>
-        <v>1.2636978319776951E-4</v>
+        <f>J52</f>
+        <v>1.3224080394744016E-6</v>
       </c>
       <c r="K68" s="9"/>
       <c r="L68" s="10"/>
     </row>
-    <row r="69" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <f>K62</f>
+        <v>3.4939232104982537E-5</v>
+      </c>
       <c r="J69">
-        <f>L57</f>
-        <v>1.2262891817046151E-4</v>
+        <f>K52</f>
+        <v>1.1647340766602571E-6</v>
       </c>
       <c r="K69" s="9"/>
       <c r="L69" s="10"/>
     </row>
-    <row r="70" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <f>L62</f>
+        <v>3.3904942513316673E-5</v>
+      </c>
       <c r="J70">
-        <f>M57</f>
-        <v>1.332840786695916E-4</v>
+        <f>L52</f>
+        <v>1.1302550037107271E-6</v>
       </c>
       <c r="K70" s="9"/>
       <c r="L70" s="10"/>
     </row>
-    <row r="71" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <f>M62</f>
+        <v>3.6850924664859351E-5</v>
+      </c>
       <c r="J71">
-        <f>N57</f>
-        <v>1.3277969237377477E-4</v>
+        <f>M52</f>
+        <v>1.2284622508197825E-6</v>
       </c>
       <c r="K71" s="9"/>
       <c r="L71" s="10"/>
     </row>
-    <row r="72" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <f>N62</f>
+        <v>3.6711469888454957E-5</v>
+      </c>
       <c r="J72">
-        <f>O57</f>
-        <v>1.1411739942855286E-4</v>
+        <f>N52</f>
+        <v>1.2238133870513063E-6</v>
       </c>
       <c r="K72" s="9"/>
       <c r="L72" s="10"/>
+    </row>
+    <row r="73" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <f>O62</f>
+        <v>3.1551643161492627E-5</v>
+      </c>
+      <c r="J73">
+        <f>O52</f>
+        <v>1.0518054276176945E-6</v>
+      </c>
+      <c r="K73" s="9"/>
+      <c r="L73" s="10"/>
+    </row>
+    <row r="74" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <f>J63</f>
+        <v>6.2311219464059115E-5</v>
+      </c>
+      <c r="J74">
+        <f>J53</f>
+        <v>2.0772065181670081E-6</v>
+      </c>
+      <c r="K74" s="9"/>
+      <c r="L74" s="10"/>
+    </row>
+    <row r="75" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <f>K63</f>
+        <v>5.4881699522101572E-5</v>
+      </c>
+      <c r="J75">
+        <f>K53</f>
+        <v>1.8295360764227658E-6</v>
+      </c>
+      <c r="K75" s="9"/>
+      <c r="L75" s="10"/>
+    </row>
+    <row r="76" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <f>L63</f>
+        <v>5.3257062483196848E-5</v>
+      </c>
+      <c r="J76">
+        <f>L53</f>
+        <v>1.7753771837563343E-6</v>
+      </c>
+      <c r="K76" s="9"/>
+      <c r="L76" s="10"/>
+    </row>
+    <row r="77" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <f>M63</f>
+        <v>5.7884539891762546E-5</v>
+      </c>
+      <c r="J77">
+        <f>M53</f>
+        <v>1.9296387488230798E-6</v>
+      </c>
+      <c r="K77" s="9"/>
+      <c r="L77" s="10"/>
+    </row>
+    <row r="78" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <f>N63</f>
+        <v>5.7665487706741675E-5</v>
+      </c>
+      <c r="J78">
+        <f>N53</f>
+        <v>1.9223364262163703E-6</v>
+      </c>
+      <c r="K78" s="9"/>
+      <c r="L78" s="10"/>
+    </row>
+    <row r="79" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <f>O63</f>
+        <v>4.9560556860969811E-5</v>
+      </c>
+      <c r="J79">
+        <f>O53</f>
+        <v>1.6521504897681053E-6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
